--- a/30 設計/20 プログラム設計/10 機能設計/51 ユーザー情報変更/ユーザー情報変更.xlsx
+++ b/30 設計/20 プログラム設計/10 機能設計/51 ユーザー情報変更/ユーザー情報変更.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="450" yWindow="-285" windowWidth="17220" windowHeight="12990" activeTab="2"/>
@@ -13,7 +13,7 @@
     <sheet name="Template_【機能名】" sheetId="23" r:id="rId4"/>
     <sheet name="凡例" sheetId="22" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -233,16 +233,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ユーザー情報変更 changeUserInfo():void</t>
-    <rPh sb="4" eb="6">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>：ダッシュボード</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -386,19 +376,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ユーザー情報変更完了 changeUserInfoCompleted():void</t>
-    <rPh sb="4" eb="6">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>カンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>set アカウント(account:string):void</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -416,6 +393,29 @@
   </si>
   <si>
     <t>regist ユーザー情報():void</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザー情報変更 changeUserProfile():void</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザー情報変更完了 changeUserProfileCompleted():void</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンリョウ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1385,7 +1385,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2421,7 +2421,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -3943,7 +3943,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3985,7 +3985,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4020,7 +4020,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10378,27 +10378,27 @@
       <c r="M6" s="52"/>
       <c r="N6" s="52"/>
       <c r="O6" s="52"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="45"/>
-      <c r="S6" s="74" t="s">
+      <c r="P6" s="52"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="T6" s="68"/>
       <c r="U6" s="68"/>
-      <c r="V6" s="52"/>
-      <c r="W6" s="53"/>
-      <c r="X6" s="62"/>
-      <c r="Y6" s="74" t="s">
+      <c r="V6" s="68"/>
+      <c r="W6" s="52"/>
+      <c r="X6" s="53"/>
+      <c r="Y6" s="62"/>
+      <c r="Z6" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="Z6" s="68"/>
       <c r="AA6" s="68"/>
-      <c r="AB6" s="52"/>
-      <c r="AC6" s="68"/>
-      <c r="AD6" s="52"/>
-      <c r="AE6" s="53"/>
-      <c r="AF6" s="33"/>
+      <c r="AB6" s="68"/>
+      <c r="AC6" s="52"/>
+      <c r="AD6" s="68"/>
+      <c r="AE6" s="52"/>
+      <c r="AF6" s="53"/>
       <c r="AG6" s="33"/>
       <c r="AH6" s="33"/>
       <c r="AI6" s="33"/>
@@ -10439,28 +10439,29 @@
       <c r="M7" s="47"/>
       <c r="N7" s="47"/>
       <c r="O7" s="47"/>
-      <c r="P7" s="67"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="45"/>
-      <c r="S7" s="75" t="s">
+      <c r="P7" s="47"/>
+      <c r="Q7" s="67"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="T7" s="69"/>
       <c r="U7" s="69"/>
-      <c r="V7" s="55"/>
-      <c r="W7" s="56"/>
-      <c r="X7" s="62"/>
-      <c r="Y7" s="75" t="s">
-        <v>52</v>
+      <c r="V7" s="69"/>
+      <c r="W7" s="55"/>
+      <c r="X7" s="56"/>
+      <c r="Y7" s="62"/>
+      <c r="Z7" s="75" t="s">
+        <v>51</v>
       </c>
-      <c r="Z7" s="69"/>
       <c r="AA7" s="69"/>
-      <c r="AB7" s="55"/>
-      <c r="AC7" s="69"/>
-      <c r="AD7" s="55"/>
-      <c r="AE7" s="56"/>
-      <c r="AF7" s="33"/>
+      <c r="AB7" s="69"/>
+      <c r="AC7" s="55"/>
+      <c r="AD7" s="69"/>
+      <c r="AE7" s="55"/>
+      <c r="AF7" s="56"/>
       <c r="AG7" s="33"/>
+      <c r="AH7" s="33"/>
       <c r="AR7" s="33"/>
       <c r="AS7" s="33"/>
       <c r="AT7" s="33"/>
@@ -10490,24 +10491,25 @@
       <c r="M8" s="55"/>
       <c r="N8" s="55"/>
       <c r="O8" s="55"/>
-      <c r="P8" s="56"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="45"/>
-      <c r="S8" s="76"/>
-      <c r="T8" s="77"/>
+      <c r="P8" s="55"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="45"/>
+      <c r="T8" s="76"/>
       <c r="U8" s="77"/>
-      <c r="V8" s="36"/>
-      <c r="W8" s="37"/>
-      <c r="X8" s="62"/>
-      <c r="Y8" s="76"/>
-      <c r="Z8" s="77"/>
+      <c r="V8" s="77"/>
+      <c r="W8" s="36"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="62"/>
+      <c r="Z8" s="76"/>
       <c r="AA8" s="77"/>
-      <c r="AB8" s="36"/>
-      <c r="AC8" s="77"/>
-      <c r="AD8" s="36"/>
-      <c r="AE8" s="37"/>
-      <c r="AF8" s="33"/>
+      <c r="AB8" s="77"/>
+      <c r="AC8" s="36"/>
+      <c r="AD8" s="77"/>
+      <c r="AE8" s="36"/>
+      <c r="AF8" s="37"/>
       <c r="AG8" s="33"/>
+      <c r="AH8" s="33"/>
       <c r="AR8" s="33"/>
       <c r="AS8" s="33"/>
       <c r="AT8" s="33"/>
@@ -10539,24 +10541,25 @@
       <c r="M9" s="59"/>
       <c r="N9" s="59"/>
       <c r="O9" s="59"/>
-      <c r="P9" s="60"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="45"/>
-      <c r="S9" s="76"/>
-      <c r="T9" s="77"/>
+      <c r="P9" s="59"/>
+      <c r="Q9" s="60"/>
+      <c r="R9" s="33"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="76"/>
       <c r="U9" s="77"/>
-      <c r="V9" s="36"/>
-      <c r="W9" s="37"/>
-      <c r="X9" s="62"/>
-      <c r="Y9" s="76"/>
-      <c r="Z9" s="77"/>
+      <c r="V9" s="77"/>
+      <c r="W9" s="36"/>
+      <c r="X9" s="37"/>
+      <c r="Y9" s="62"/>
+      <c r="Z9" s="76"/>
       <c r="AA9" s="77"/>
-      <c r="AB9" s="36"/>
-      <c r="AC9" s="77"/>
-      <c r="AD9" s="36"/>
-      <c r="AE9" s="37"/>
-      <c r="AF9" s="33"/>
+      <c r="AB9" s="77"/>
+      <c r="AC9" s="36"/>
+      <c r="AD9" s="77"/>
+      <c r="AE9" s="36"/>
+      <c r="AF9" s="37"/>
       <c r="AG9" s="33"/>
+      <c r="AH9" s="33"/>
       <c r="AR9" s="33"/>
       <c r="AS9" s="33"/>
       <c r="AT9" s="33"/>
@@ -10574,7 +10577,7 @@
         <v>34</v>
       </c>
       <c r="C10" s="59" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="D10" s="59"/>
       <c r="E10" s="59"/>
@@ -10588,20 +10591,20 @@
       <c r="M10" s="59"/>
       <c r="N10" s="59"/>
       <c r="O10" s="59"/>
-      <c r="P10" s="60"/>
-      <c r="Q10" s="38"/>
-      <c r="R10" s="80"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="60"/>
+      <c r="R10" s="38"/>
       <c r="S10" s="80"/>
-      <c r="T10" s="41"/>
-      <c r="U10" s="80"/>
+      <c r="T10" s="80"/>
+      <c r="U10" s="41"/>
       <c r="V10" s="80"/>
       <c r="W10" s="80"/>
       <c r="X10" s="80"/>
       <c r="Y10" s="80"/>
       <c r="Z10" s="80"/>
-      <c r="AA10" s="41"/>
-      <c r="AB10" s="39"/>
-      <c r="AC10" s="33"/>
+      <c r="AA10" s="80"/>
+      <c r="AB10" s="41"/>
+      <c r="AC10" s="39"/>
       <c r="AD10" s="33"/>
       <c r="AE10" s="33"/>
       <c r="AF10" s="33"/>
@@ -10633,7 +10636,7 @@
         <v>25</v>
       </c>
       <c r="C11" s="65" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D11" s="40"/>
       <c r="E11" s="40"/>
@@ -10647,18 +10650,18 @@
       <c r="M11" s="40"/>
       <c r="N11" s="40"/>
       <c r="O11" s="40"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="45"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="33"/>
       <c r="S11" s="45"/>
-      <c r="T11" s="33"/>
-      <c r="U11" s="45"/>
+      <c r="T11" s="45"/>
+      <c r="U11" s="33"/>
       <c r="V11" s="45"/>
       <c r="W11" s="45"/>
       <c r="X11" s="45"/>
       <c r="Y11" s="45"/>
       <c r="Z11" s="45"/>
-      <c r="AA11" s="33"/>
+      <c r="AA11" s="45"/>
       <c r="AB11" s="33"/>
       <c r="AC11" s="33"/>
       <c r="AD11" s="33"/>
@@ -10896,10 +10899,10 @@
     <row r="16" spans="1:53">
       <c r="A16" s="39"/>
       <c r="B16" s="61" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" s="62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
@@ -10938,10 +10941,10 @@
     <row r="17" spans="1:53">
       <c r="A17" s="39"/>
       <c r="B17" s="61" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" s="62" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
@@ -10967,10 +10970,10 @@
     <row r="18" spans="1:53">
       <c r="A18" s="39"/>
       <c r="B18" s="39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
@@ -10996,10 +10999,10 @@
     <row r="19" spans="1:53">
       <c r="A19" s="39"/>
       <c r="B19" s="39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
@@ -11025,10 +11028,10 @@
     <row r="20" spans="1:53">
       <c r="A20" s="39"/>
       <c r="B20" s="58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D20" s="31"/>
       <c r="E20" s="31"/>
@@ -11054,10 +11057,10 @@
     <row r="21" spans="1:53">
       <c r="A21" s="39"/>
       <c r="B21" s="61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
@@ -11083,10 +11086,10 @@
     <row r="22" spans="1:53">
       <c r="A22" s="39"/>
       <c r="B22" s="61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D22" s="62"/>
       <c r="E22" s="62"/>
@@ -11112,10 +11115,10 @@
     <row r="23" spans="1:53">
       <c r="A23" s="39"/>
       <c r="B23" s="61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D23" s="62"/>
       <c r="E23" s="62"/>
@@ -11141,10 +11144,10 @@
     <row r="24" spans="1:53">
       <c r="A24" s="39"/>
       <c r="B24" s="64" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C24" s="40" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D24" s="65"/>
       <c r="E24" s="65"/>
@@ -11466,7 +11469,7 @@
     <row r="31" spans="1:53">
       <c r="A31" s="39"/>
       <c r="B31" s="57" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C31" s="55"/>
       <c r="D31" s="55"/>
@@ -11586,7 +11589,7 @@
       <c r="F33" s="33"/>
       <c r="G33" s="34"/>
       <c r="H33" s="57" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I33" s="55"/>
       <c r="J33" s="55"/>
@@ -11640,7 +11643,7 @@
       <c r="C34" s="22"/>
       <c r="D34" s="22"/>
       <c r="E34" s="33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F34" s="33"/>
       <c r="G34" s="33"/>
@@ -11973,7 +11976,7 @@
     <row r="40" spans="1:53">
       <c r="A40" s="39"/>
       <c r="B40" s="57" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C40" s="55"/>
       <c r="D40" s="55"/>
@@ -12090,7 +12093,7 @@
       <c r="E42" s="33"/>
       <c r="F42" s="33"/>
       <c r="G42" s="33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H42" s="33"/>
       <c r="I42" s="33"/>
@@ -12256,7 +12259,7 @@
       <c r="D45" s="33"/>
       <c r="E45" s="33"/>
       <c r="F45" s="33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G45" s="33"/>
       <c r="H45" s="33"/>
@@ -12379,7 +12382,7 @@
       <c r="P47" s="33"/>
       <c r="Q47" s="34"/>
       <c r="R47" s="57" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S47" s="55"/>
       <c r="T47" s="55"/>
@@ -12432,7 +12435,7 @@
       <c r="K48" s="33"/>
       <c r="L48" s="33"/>
       <c r="M48" s="33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N48" s="33"/>
       <c r="O48" s="33"/>
@@ -12542,7 +12545,7 @@
       <c r="K50" s="33"/>
       <c r="L50" s="33"/>
       <c r="M50" s="33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N50" s="33"/>
       <c r="O50" s="33"/>
@@ -12652,7 +12655,7 @@
       <c r="K52" s="33"/>
       <c r="L52" s="33"/>
       <c r="M52" s="33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N52" s="33"/>
       <c r="O52" s="33"/>
@@ -12766,7 +12769,7 @@
       <c r="K54" s="33"/>
       <c r="L54" s="33"/>
       <c r="M54" s="33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N54" s="33"/>
       <c r="O54" s="33"/>
@@ -12812,7 +12815,7 @@
     <row r="55" spans="1:53">
       <c r="A55" s="39"/>
       <c r="B55" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C55" s="55"/>
       <c r="D55" s="55"/>
@@ -12880,7 +12883,7 @@
       <c r="K56" s="33"/>
       <c r="L56" s="33"/>
       <c r="M56" s="33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N56" s="33"/>
       <c r="O56" s="33"/>
@@ -12932,7 +12935,7 @@
       <c r="F57" s="33"/>
       <c r="G57" s="33"/>
       <c r="H57" s="33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I57" s="33"/>
       <c r="J57" s="33"/>
